--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cfh-Sell.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cfh-Sell.xlsx
@@ -534,28 +534,28 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.157268</v>
+        <v>0.4128076666666667</v>
       </c>
       <c r="H2">
-        <v>3.471804</v>
+        <v>1.238423</v>
       </c>
       <c r="I2">
-        <v>0.003820768222310022</v>
+        <v>0.001366259689176221</v>
       </c>
       <c r="J2">
-        <v>0.003820768222310022</v>
+        <v>0.001366259689176221</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>85.13229200000001</v>
+        <v>0.002279333333333333</v>
       </c>
       <c r="N2">
-        <v>255.396876</v>
+        <v>0.006838</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>98.52087729825601</v>
+        <v>0.0009409262748888889</v>
       </c>
       <c r="R2">
-        <v>886.6878956843041</v>
+        <v>0.008468336474000001</v>
       </c>
       <c r="S2">
-        <v>0.003820768222310022</v>
+        <v>0.001366259689176221</v>
       </c>
       <c r="T2">
-        <v>0.003820768222310022</v>
+        <v>0.001366259689176221</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,22 +602,22 @@
         <v>822.755494</v>
       </c>
       <c r="I3">
-        <v>0.9054537774039616</v>
+        <v>0.90768474543873</v>
       </c>
       <c r="J3">
-        <v>0.9054537774039616</v>
+        <v>0.9076847454387301</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>85.13229200000001</v>
+        <v>0.002279333333333333</v>
       </c>
       <c r="N3">
-        <v>255.396876</v>
+        <v>0.006838</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>23347.68698660408</v>
+        <v>0.6251113408857777</v>
       </c>
       <c r="R3">
-        <v>210129.1828794368</v>
+        <v>5.626002067972</v>
       </c>
       <c r="S3">
-        <v>0.9054537774039616</v>
+        <v>0.90768474543873</v>
       </c>
       <c r="T3">
-        <v>0.9054537774039616</v>
+        <v>0.9076847454387301</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,22 +664,22 @@
         <v>82.439179</v>
       </c>
       <c r="I4">
-        <v>0.09072545437372836</v>
+        <v>0.09094899487209368</v>
       </c>
       <c r="J4">
-        <v>0.09072545437372836</v>
+        <v>0.09094899487209368</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>85.13229200000001</v>
+        <v>0.002279333333333333</v>
       </c>
       <c r="N4">
-        <v>255.396876</v>
+        <v>0.006838</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>2339.412086289423</v>
+        <v>0.06263545622244444</v>
       </c>
       <c r="R4">
-        <v>21054.70877660481</v>
+        <v>0.563719106002</v>
       </c>
       <c r="S4">
-        <v>0.09072545437372836</v>
+        <v>0.09094899487209368</v>
       </c>
       <c r="T4">
-        <v>0.09072545437372836</v>
+        <v>0.09094899487209368</v>
       </c>
     </row>
   </sheetData>
